--- a/Model/BayesLSTM/Univariate/result/Manufacturing/USA.xlsx
+++ b/Model/BayesLSTM/Univariate/result/Manufacturing/USA.xlsx
@@ -428,7 +428,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D18"/>
+  <dimension ref="A1:D13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -463,13 +463,13 @@
         <v>2005</v>
       </c>
       <c r="B2" t="n">
-        <v>11.09649467468262</v>
+        <v>10.92751884460449</v>
       </c>
       <c r="C2" t="n">
-        <v>9.939414978027344</v>
+        <v>10.50336456298828</v>
       </c>
       <c r="D2" t="n">
-        <v>12.25357437133789</v>
+        <v>11.3516731262207</v>
       </c>
     </row>
     <row r="3">
@@ -477,13 +477,13 @@
         <v>2006</v>
       </c>
       <c r="B3" t="n">
-        <v>11.1881160736084</v>
+        <v>10.87894916534424</v>
       </c>
       <c r="C3" t="n">
-        <v>9.978679656982422</v>
+        <v>10.02246189117432</v>
       </c>
       <c r="D3" t="n">
-        <v>12.39755249023438</v>
+        <v>11.73543643951416</v>
       </c>
     </row>
     <row r="4">
@@ -491,13 +491,13 @@
         <v>2007</v>
       </c>
       <c r="B4" t="n">
-        <v>11.12710666656494</v>
+        <v>10.91829586029053</v>
       </c>
       <c r="C4" t="n">
-        <v>10.16433238983154</v>
+        <v>9.816691398620605</v>
       </c>
       <c r="D4" t="n">
-        <v>12.08988094329834</v>
+        <v>12.01990032196045</v>
       </c>
     </row>
     <row r="5">
@@ -505,13 +505,13 @@
         <v>2008</v>
       </c>
       <c r="B5" t="n">
-        <v>11.15683746337891</v>
+        <v>10.7454833984375</v>
       </c>
       <c r="C5" t="n">
-        <v>10.41050815582275</v>
+        <v>9.501436233520508</v>
       </c>
       <c r="D5" t="n">
-        <v>11.90316677093506</v>
+        <v>11.98953056335449</v>
       </c>
     </row>
     <row r="6">
@@ -519,13 +519,13 @@
         <v>2009</v>
       </c>
       <c r="B6" t="n">
-        <v>11.49812507629395</v>
+        <v>10.85112953186035</v>
       </c>
       <c r="C6" t="n">
-        <v>10.53768157958984</v>
+        <v>9.454183578491211</v>
       </c>
       <c r="D6" t="n">
-        <v>12.45856857299805</v>
+        <v>12.24807548522949</v>
       </c>
     </row>
     <row r="7">
@@ -533,13 +533,13 @@
         <v>2010</v>
       </c>
       <c r="B7" t="n">
-        <v>11.33207607269287</v>
+        <v>10.85388851165771</v>
       </c>
       <c r="C7" t="n">
-        <v>10.52501487731934</v>
+        <v>9.48634147644043</v>
       </c>
       <c r="D7" t="n">
-        <v>12.13913726806641</v>
+        <v>12.221435546875</v>
       </c>
     </row>
     <row r="8">
@@ -547,13 +547,13 @@
         <v>2011</v>
       </c>
       <c r="B8" t="n">
-        <v>11.29056262969971</v>
+        <v>10.88593769073486</v>
       </c>
       <c r="C8" t="n">
-        <v>10.6008129119873</v>
+        <v>9.76301383972168</v>
       </c>
       <c r="D8" t="n">
-        <v>11.98031234741211</v>
+        <v>12.00886154174805</v>
       </c>
     </row>
     <row r="9">
@@ -561,13 +561,13 @@
         <v>2012</v>
       </c>
       <c r="B9" t="n">
-        <v>11.29883003234863</v>
+        <v>10.76769828796387</v>
       </c>
       <c r="C9" t="n">
-        <v>10.65621948242188</v>
+        <v>9.526859283447266</v>
       </c>
       <c r="D9" t="n">
-        <v>11.94144058227539</v>
+        <v>12.00853729248047</v>
       </c>
     </row>
     <row r="10">
@@ -575,13 +575,13 @@
         <v>2013</v>
       </c>
       <c r="B10" t="n">
-        <v>11.36403465270996</v>
+        <v>10.76301860809326</v>
       </c>
       <c r="C10" t="n">
-        <v>10.90949821472168</v>
+        <v>9.436833381652832</v>
       </c>
       <c r="D10" t="n">
-        <v>11.81857109069824</v>
+        <v>12.08920383453369</v>
       </c>
     </row>
     <row r="11">
@@ -589,13 +589,13 @@
         <v>2014</v>
       </c>
       <c r="B11" t="n">
-        <v>11.34056758880615</v>
+        <v>10.79320812225342</v>
       </c>
       <c r="C11" t="n">
-        <v>10.69806480407715</v>
+        <v>9.572837829589844</v>
       </c>
       <c r="D11" t="n">
-        <v>11.98307037353516</v>
+        <v>12.01357841491699</v>
       </c>
     </row>
     <row r="12">
@@ -603,13 +603,13 @@
         <v>2015</v>
       </c>
       <c r="B12" t="n">
-        <v>11.25597667694092</v>
+        <v>10.82545185089111</v>
       </c>
       <c r="C12" t="n">
-        <v>10.52250576019287</v>
+        <v>9.886919021606445</v>
       </c>
       <c r="D12" t="n">
-        <v>11.98944759368896</v>
+        <v>11.76398468017578</v>
       </c>
     </row>
     <row r="13">
@@ -617,83 +617,13 @@
         <v>2016</v>
       </c>
       <c r="B13" t="n">
-        <v>11.18972206115723</v>
+        <v>10.94977378845215</v>
       </c>
       <c r="C13" t="n">
-        <v>10.36738014221191</v>
+        <v>9.755854606628418</v>
       </c>
       <c r="D13" t="n">
-        <v>12.01206398010254</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" t="n">
-        <v>2017</v>
-      </c>
-      <c r="B14" t="n">
-        <v>11.02468681335449</v>
-      </c>
-      <c r="C14" t="n">
-        <v>10.17379379272461</v>
-      </c>
-      <c r="D14" t="n">
-        <v>11.87557983398438</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" t="n">
-        <v>2018</v>
-      </c>
-      <c r="B15" t="n">
-        <v>11.16138553619385</v>
-      </c>
-      <c r="C15" t="n">
-        <v>10.4670877456665</v>
-      </c>
-      <c r="D15" t="n">
-        <v>11.85568332672119</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="n">
-        <v>2019</v>
-      </c>
-      <c r="B16" t="n">
-        <v>11.03403186798096</v>
-      </c>
-      <c r="C16" t="n">
-        <v>10.46683502197266</v>
-      </c>
-      <c r="D16" t="n">
-        <v>11.60122871398926</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="n">
-        <v>2020</v>
-      </c>
-      <c r="B17" t="n">
-        <v>10.93249797821045</v>
-      </c>
-      <c r="C17" t="n">
-        <v>10.23425006866455</v>
-      </c>
-      <c r="D17" t="n">
-        <v>11.63074588775635</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" t="n">
-        <v>2021</v>
-      </c>
-      <c r="B18" t="n">
-        <v>10.96707916259766</v>
-      </c>
-      <c r="C18" t="n">
-        <v>10.33960628509521</v>
-      </c>
-      <c r="D18" t="n">
-        <v>11.5945520401001</v>
+        <v>12.14369297027588</v>
       </c>
     </row>
   </sheetData>
@@ -739,72 +669,72 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>2022</v>
+        <v>2017</v>
       </c>
       <c r="B2" t="n">
-        <v>11.75171766281128</v>
+        <v>10.96717739105225</v>
       </c>
       <c r="C2" t="n">
-        <v>11.08496441309559</v>
+        <v>9.874782562255859</v>
       </c>
       <c r="D2" t="n">
-        <v>12.41847091252697</v>
+        <v>12.05957221984863</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>2023</v>
+        <v>2018</v>
       </c>
       <c r="B3" t="n">
-        <v>12.26817045211792</v>
+        <v>10.90340232849121</v>
       </c>
       <c r="C3" t="n">
-        <v>11.65668602452228</v>
+        <v>9.744025230407715</v>
       </c>
       <c r="D3" t="n">
-        <v>12.87965487971356</v>
+        <v>12.06277942657471</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>2024</v>
+        <v>2019</v>
       </c>
       <c r="B4" t="n">
-        <v>11.15243120193481</v>
+        <v>10.94484710693359</v>
       </c>
       <c r="C4" t="n">
-        <v>10.4591055012948</v>
+        <v>9.56120777130127</v>
       </c>
       <c r="D4" t="n">
-        <v>11.84575690257483</v>
+        <v>12.32848644256592</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>2025</v>
+        <v>2020</v>
       </c>
       <c r="B5" t="n">
-        <v>12.73300733566284</v>
+        <v>10.85191249847412</v>
       </c>
       <c r="C5" t="n">
-        <v>12.00687359500249</v>
+        <v>9.451906204223633</v>
       </c>
       <c r="D5" t="n">
-        <v>13.4591410763232</v>
+        <v>12.25191879272461</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>2026</v>
+        <v>2021</v>
       </c>
       <c r="B6" t="n">
-        <v>11.20661363601685</v>
+        <v>10.73887157440186</v>
       </c>
       <c r="C6" t="n">
-        <v>10.34629406399234</v>
+        <v>9.23480224609375</v>
       </c>
       <c r="D6" t="n">
-        <v>12.06693320804136</v>
+        <v>12.24294090270996</v>
       </c>
     </row>
   </sheetData>
@@ -853,13 +783,13 @@
         <v>2005</v>
       </c>
       <c r="B2" t="n">
-        <v>11.61026191711426</v>
+        <v>11.50271701812744</v>
       </c>
       <c r="C2" t="n">
-        <v>10.83527565002441</v>
+        <v>11.00005912780762</v>
       </c>
       <c r="D2" t="n">
-        <v>12.3852481842041</v>
+        <v>12.00537490844727</v>
       </c>
     </row>
     <row r="3">
@@ -867,13 +797,13 @@
         <v>2006</v>
       </c>
       <c r="B3" t="n">
-        <v>11.23491764068604</v>
+        <v>11.58188343048096</v>
       </c>
       <c r="C3" t="n">
-        <v>10.41006183624268</v>
+        <v>11.05516052246094</v>
       </c>
       <c r="D3" t="n">
-        <v>12.05977344512939</v>
+        <v>12.10860633850098</v>
       </c>
     </row>
     <row r="4">
@@ -881,13 +811,13 @@
         <v>2007</v>
       </c>
       <c r="B4" t="n">
-        <v>11.25283622741699</v>
+        <v>11.43129539489746</v>
       </c>
       <c r="C4" t="n">
-        <v>10.3999195098877</v>
+        <v>10.57649421691895</v>
       </c>
       <c r="D4" t="n">
-        <v>12.10575294494629</v>
+        <v>12.28609657287598</v>
       </c>
     </row>
     <row r="5">
@@ -895,13 +825,13 @@
         <v>2008</v>
       </c>
       <c r="B5" t="n">
-        <v>11.31455516815186</v>
+        <v>11.41306114196777</v>
       </c>
       <c r="C5" t="n">
-        <v>10.19249057769775</v>
+        <v>10.70690250396729</v>
       </c>
       <c r="D5" t="n">
-        <v>12.43661975860596</v>
+        <v>12.11921977996826</v>
       </c>
     </row>
     <row r="6">
@@ -909,13 +839,13 @@
         <v>2009</v>
       </c>
       <c r="B6" t="n">
-        <v>11.27339458465576</v>
+        <v>10.88428115844727</v>
       </c>
       <c r="C6" t="n">
-        <v>10.50283050537109</v>
+        <v>9.768799781799316</v>
       </c>
       <c r="D6" t="n">
-        <v>12.04395866394043</v>
+        <v>11.99976253509521</v>
       </c>
     </row>
     <row r="7">
@@ -923,13 +853,13 @@
         <v>2010</v>
       </c>
       <c r="B7" t="n">
-        <v>11.17282581329346</v>
+        <v>10.99556636810303</v>
       </c>
       <c r="C7" t="n">
-        <v>10.25046730041504</v>
+        <v>10.12137508392334</v>
       </c>
       <c r="D7" t="n">
-        <v>12.09518432617188</v>
+        <v>11.86975765228271</v>
       </c>
     </row>
     <row r="8">
@@ -937,13 +867,13 @@
         <v>2011</v>
       </c>
       <c r="B8" t="n">
-        <v>11.13114261627197</v>
+        <v>10.96316623687744</v>
       </c>
       <c r="C8" t="n">
-        <v>10.00068187713623</v>
+        <v>10.1004524230957</v>
       </c>
       <c r="D8" t="n">
-        <v>12.26160335540771</v>
+        <v>11.82588005065918</v>
       </c>
     </row>
     <row r="9">
@@ -951,13 +881,13 @@
         <v>2012</v>
       </c>
       <c r="B9" t="n">
-        <v>11.09596347808838</v>
+        <v>10.94917964935303</v>
       </c>
       <c r="C9" t="n">
-        <v>9.840022087097168</v>
+        <v>9.851788520812988</v>
       </c>
       <c r="D9" t="n">
-        <v>12.35190486907959</v>
+        <v>12.04657077789307</v>
       </c>
     </row>
     <row r="10">
@@ -965,13 +895,13 @@
         <v>2013</v>
       </c>
       <c r="B10" t="n">
-        <v>11.14205074310303</v>
+        <v>11.01721477508545</v>
       </c>
       <c r="C10" t="n">
-        <v>9.912617683410645</v>
+        <v>10.17109107971191</v>
       </c>
       <c r="D10" t="n">
-        <v>12.37148380279541</v>
+        <v>11.86333847045898</v>
       </c>
     </row>
     <row r="11">
@@ -979,13 +909,13 @@
         <v>2014</v>
       </c>
       <c r="B11" t="n">
-        <v>11.11233711242676</v>
+        <v>10.87582397460938</v>
       </c>
       <c r="C11" t="n">
-        <v>9.938931465148926</v>
+        <v>10.15523052215576</v>
       </c>
       <c r="D11" t="n">
-        <v>12.28574275970459</v>
+        <v>11.59641742706299</v>
       </c>
     </row>
     <row r="12">
@@ -993,13 +923,13 @@
         <v>2015</v>
       </c>
       <c r="B12" t="n">
-        <v>11.21928596496582</v>
+        <v>11.03783988952637</v>
       </c>
       <c r="C12" t="n">
-        <v>9.905481338500977</v>
+        <v>10.24356269836426</v>
       </c>
       <c r="D12" t="n">
-        <v>12.53309059143066</v>
+        <v>11.83211708068848</v>
       </c>
     </row>
     <row r="13">
@@ -1007,13 +937,13 @@
         <v>2016</v>
       </c>
       <c r="B13" t="n">
-        <v>11.30918121337891</v>
+        <v>10.95727062225342</v>
       </c>
       <c r="C13" t="n">
-        <v>9.846577644348145</v>
+        <v>10.23621273040771</v>
       </c>
       <c r="D13" t="n">
-        <v>12.77178478240967</v>
+        <v>11.67832851409912</v>
       </c>
     </row>
     <row r="14">
@@ -1021,13 +951,13 @@
         <v>2017</v>
       </c>
       <c r="B14" t="n">
-        <v>11.29142093658447</v>
+        <v>11.19831275939941</v>
       </c>
       <c r="C14" t="n">
-        <v>10.31346130371094</v>
+        <v>10.29886245727539</v>
       </c>
       <c r="D14" t="n">
-        <v>12.26938056945801</v>
+        <v>12.09776306152344</v>
       </c>
     </row>
     <row r="15">
@@ -1035,13 +965,13 @@
         <v>2018</v>
       </c>
       <c r="B15" t="n">
-        <v>11.27467918395996</v>
+        <v>11.19561195373535</v>
       </c>
       <c r="C15" t="n">
-        <v>10.15855979919434</v>
+        <v>10.2845983505249</v>
       </c>
       <c r="D15" t="n">
-        <v>12.39079856872559</v>
+        <v>12.1066255569458</v>
       </c>
     </row>
     <row r="16">
@@ -1049,13 +979,13 @@
         <v>2019</v>
       </c>
       <c r="B16" t="n">
-        <v>11.20713806152344</v>
+        <v>11.22843647003174</v>
       </c>
       <c r="C16" t="n">
-        <v>10.05518245697021</v>
+        <v>10.28548145294189</v>
       </c>
       <c r="D16" t="n">
-        <v>12.35909366607666</v>
+        <v>12.17139148712158</v>
       </c>
     </row>
     <row r="17">
@@ -1063,13 +993,13 @@
         <v>2020</v>
       </c>
       <c r="B17" t="n">
-        <v>11.25800609588623</v>
+        <v>11.30463123321533</v>
       </c>
       <c r="C17" t="n">
-        <v>10.19863605499268</v>
+        <v>10.35437202453613</v>
       </c>
       <c r="D17" t="n">
-        <v>12.31737613677979</v>
+        <v>12.25489044189453</v>
       </c>
     </row>
     <row r="18">
@@ -1077,13 +1007,13 @@
         <v>2021</v>
       </c>
       <c r="B18" t="n">
-        <v>11.29061794281006</v>
+        <v>11.10507774353027</v>
       </c>
       <c r="C18" t="n">
-        <v>10.1737003326416</v>
+        <v>10.34518718719482</v>
       </c>
       <c r="D18" t="n">
-        <v>12.40753555297852</v>
+        <v>11.86496829986572</v>
       </c>
     </row>
   </sheetData>
@@ -1132,13 +1062,13 @@
         <v>2022</v>
       </c>
       <c r="B2" t="n">
-        <v>11.02684650421143</v>
+        <v>11.40926895141602</v>
       </c>
       <c r="C2" t="n">
-        <v>10.34588755165654</v>
+        <v>10.89519446280308</v>
       </c>
       <c r="D2" t="n">
-        <v>11.70780545676631</v>
+        <v>11.92334344002895</v>
       </c>
     </row>
     <row r="3">
@@ -1146,13 +1076,13 @@
         <v>2023</v>
       </c>
       <c r="B3" t="n">
-        <v>11.28064403533936</v>
+        <v>12.09011602401733</v>
       </c>
       <c r="C3" t="n">
-        <v>10.49703635835577</v>
+        <v>11.84890290807959</v>
       </c>
       <c r="D3" t="n">
-        <v>12.06425171232294</v>
+        <v>12.33132913995508</v>
       </c>
     </row>
     <row r="4">
@@ -1160,13 +1090,13 @@
         <v>2024</v>
       </c>
       <c r="B4" t="n">
-        <v>12.13959531784058</v>
+        <v>11.00958909988403</v>
       </c>
       <c r="C4" t="n">
-        <v>11.558911484526</v>
+        <v>10.37914769837381</v>
       </c>
       <c r="D4" t="n">
-        <v>12.72027915115515</v>
+        <v>11.64003050139426</v>
       </c>
     </row>
     <row r="5">
@@ -1174,13 +1104,13 @@
         <v>2025</v>
       </c>
       <c r="B5" t="n">
-        <v>12.36997985839844</v>
+        <v>12.44209012985229</v>
       </c>
       <c r="C5" t="n">
-        <v>11.7364073330527</v>
+        <v>11.89048670474457</v>
       </c>
       <c r="D5" t="n">
-        <v>13.00355238374418</v>
+        <v>12.99369355496002</v>
       </c>
     </row>
     <row r="6">
@@ -1188,13 +1118,13 @@
         <v>2026</v>
       </c>
       <c r="B6" t="n">
-        <v>11.95273151397705</v>
+        <v>11.72004642486572</v>
       </c>
       <c r="C6" t="n">
-        <v>11.21705936728148</v>
+        <v>11.25070117382622</v>
       </c>
       <c r="D6" t="n">
-        <v>12.68840366067262</v>
+        <v>12.18939167590523</v>
       </c>
     </row>
   </sheetData>
